--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/MLR_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D00D945-2D7E-4684-826C-6FF3263A3FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A3C566-3ED6-4160-8297-1C5FEEF67E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/MLR_train.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A3C566-3ED6-4160-8297-1C5FEEF67E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8A2E7E-6A70-4579-8D5A-5F9363FBE3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
